--- a/0_documents/2_docs/indiv_model_results_20250322.xlsx
+++ b/0_documents/2_docs/indiv_model_results_20250322.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/04_git/code-generation/documents/2_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/04_git/code-generation/0_documents/2_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DC1CED-039C-AC4F-9D75-C069153DB6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311F01F-A87B-E646-A1F4-61F049113AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17220" xr2:uid="{C9D0F527-0BC8-1244-93BD-714AFEC4ED61}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17220" activeTab="5" xr2:uid="{C9D0F527-0BC8-1244-93BD-714AFEC4ED61}"/>
   </bookViews>
   <sheets>
     <sheet name="HumanEval" sheetId="3" r:id="rId1"/>
-    <sheet name="HumanEval_Clean_Code" sheetId="1" r:id="rId2"/>
+    <sheet name="HumanEval_Clean_Code_Analysis" sheetId="1" r:id="rId2"/>
     <sheet name="BigCode" sheetId="4" r:id="rId3"/>
     <sheet name="LBPP" sheetId="5" r:id="rId4"/>
     <sheet name="MBPP" sheetId="7" r:id="rId5"/>
-    <sheet name="indiv_model_results_OLD" sheetId="2" r:id="rId6"/>
+    <sheet name="LBPP_Reflection" sheetId="8" r:id="rId6"/>
+    <sheet name="MBPP_Reflection" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -157,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,12 +174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -518,9 +513,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
@@ -537,39 +529,34 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -589,26 +576,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -958,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71123669-A44E-B04D-8F8D-7D846D765509}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -997,55 +980,55 @@
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1110,7 +1093,7 @@
       <c r="T2" s="13">
         <v>0.48780487804877998</v>
       </c>
-      <c r="U2" s="29">
+      <c r="U2" s="28">
         <v>0.439024390243902</v>
       </c>
     </row>
@@ -1140,7 +1123,7 @@
       <c r="H3" s="3">
         <v>0.5</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="33">
         <v>0.45121951219512102</v>
       </c>
       <c r="J3" s="3">
@@ -1164,7 +1147,7 @@
       <c r="P3" s="3">
         <v>0.82317073170731703</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="33">
         <v>0.42073170731707299</v>
       </c>
       <c r="R3" s="3">
@@ -1176,7 +1159,7 @@
       <c r="T3" s="3">
         <v>0.68902439024390205</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="29">
         <v>0.73780487804878003</v>
       </c>
     </row>
@@ -1206,34 +1189,34 @@
       <c r="H4" s="22">
         <v>0.51219512195121897</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>0.45121951219512102</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>0.707317073170731</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>0.60975609756097504</v>
       </c>
       <c r="L4" s="22">
         <v>0.78048780487804803</v>
       </c>
-      <c r="M4" s="69">
+      <c r="M4" s="63">
         <v>0.76219512195121897</v>
       </c>
       <c r="N4" s="22">
         <v>0.75</v>
       </c>
-      <c r="O4" s="69">
+      <c r="O4" s="63">
         <v>0.82317073170731703</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="57">
         <v>0.82926829268292601</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>0.42073170731707299</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="57">
         <v>0.76829268292682895</v>
       </c>
       <c r="S4" s="21">
@@ -1242,7 +1225,7 @@
       <c r="T4" s="22">
         <v>0.68292682926829196</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="36">
         <v>0.76219512195121897</v>
       </c>
     </row>
@@ -1259,19 +1242,19 @@
       <c r="H5" s="3">
         <v>0.50609756097560898</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>0.45121951219512102</v>
       </c>
       <c r="J5" s="3">
         <v>0.70121951219512102</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <v>0.60975609756097504</v>
       </c>
       <c r="L5" s="3">
         <v>0.78658536585365801</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="61">
         <v>0.76219512195121897</v>
       </c>
       <c r="N5" s="3">
@@ -1283,19 +1266,19 @@
       <c r="P5" s="3">
         <v>0.82317073170731703</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <v>0.42073170731707299</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="34">
         <v>0.77439024390243905</v>
       </c>
-      <c r="S5" s="67">
+      <c r="S5" s="61">
         <v>0.792682926829268</v>
       </c>
-      <c r="T5" s="68">
+      <c r="T5" s="62">
         <v>0.68902439024390205</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="58">
         <v>0.76219512195121897</v>
       </c>
     </row>
@@ -1361,7 +1344,7 @@
       <c r="T6" s="13">
         <v>0</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="28">
         <v>0</v>
       </c>
     </row>
@@ -1391,7 +1374,7 @@
       <c r="H7" s="3">
         <v>0.46341463414634099</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="61">
         <v>0.44512195121951198</v>
       </c>
       <c r="J7" s="3">
@@ -1406,7 +1389,7 @@
       <c r="M7" s="5">
         <v>0.76829268292682895</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="34">
         <v>0.76829268292682895</v>
       </c>
       <c r="O7" s="5">
@@ -1421,13 +1404,13 @@
       <c r="R7" s="3">
         <v>9.1463414634146298E-2</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="33">
         <v>0.80487804878048697</v>
       </c>
-      <c r="T7" s="35">
+      <c r="T7" s="34">
         <v>0.69512195121951204</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="29">
         <v>0.62195121951219501</v>
       </c>
     </row>
@@ -1451,49 +1434,49 @@
       <c r="F8" s="20">
         <v>1</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <v>0.55487804878048697</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="32">
         <v>0.55487804878048697</v>
       </c>
-      <c r="I8" s="69">
+      <c r="I8" s="63">
         <v>0.44512195121951198</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="57">
         <v>0.68292682926829196</v>
       </c>
-      <c r="K8" s="69">
+      <c r="K8" s="63">
         <v>0.585365853658536</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="57">
         <v>0.81097560975609695</v>
       </c>
-      <c r="M8" s="69">
+      <c r="M8" s="63">
         <v>0.76219512195121897</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="57">
         <v>0.76219512195121897</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="35">
         <v>0.84146341463414598</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="32">
         <v>0.82926829268292601</v>
       </c>
       <c r="Q8" s="21">
         <v>0.35975609756097499</v>
       </c>
-      <c r="R8" s="63">
+      <c r="R8" s="57">
         <v>0.75609756097560898</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="35">
         <v>0.80487804878048697</v>
       </c>
-      <c r="T8" s="63">
+      <c r="T8" s="57">
         <v>0.68902439024390205</v>
       </c>
-      <c r="U8" s="65">
+      <c r="U8" s="59">
         <v>0.75</v>
       </c>
     </row>
@@ -1504,13 +1487,13 @@
         <v>27</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="62">
+      <c r="G9" s="56">
         <v>0.56097560975609695</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>0.56097560975609695</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="61">
         <v>0.44512195121951198</v>
       </c>
       <c r="J9" s="3">
@@ -1519,34 +1502,34 @@
       <c r="K9" s="5">
         <v>0.585365853658536</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <v>0.81707317073170704</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <v>0.76829268292682895</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="34">
         <v>0.76829268292682895</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <v>0.84146341463414598</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="34">
         <v>0.82926829268292601</v>
       </c>
       <c r="Q9" s="5">
         <v>0.35975609756097499</v>
       </c>
-      <c r="R9" s="68">
+      <c r="R9" s="62">
         <v>0.75609756097560898</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="33">
         <v>0.80487804878048697</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="34">
         <v>0.69512195121951204</v>
       </c>
-      <c r="U9" s="66">
+      <c r="U9" s="60">
         <v>0.75</v>
       </c>
     </row>
@@ -1612,7 +1595,7 @@
       <c r="T10" s="13">
         <v>0</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="28">
         <v>6.0975609756097502E-3</v>
       </c>
     </row>
@@ -1678,7 +1661,7 @@
       <c r="T11" s="3">
         <v>0.32317073170731703</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="29">
         <v>0.53048780487804803</v>
       </c>
     </row>
@@ -1702,10 +1685,10 @@
       <c r="F12" s="20">
         <v>1</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="55">
         <v>0.54878048780487798</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="57">
         <v>0.54878048780487798</v>
       </c>
       <c r="I12" s="21">
@@ -1744,7 +1727,7 @@
       <c r="T12" s="22">
         <v>0.51829268292682895</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="30">
         <v>0.73170731707317005</v>
       </c>
     </row>
@@ -1799,7 +1782,7 @@
       <c r="T13" s="18">
         <v>0.51829268292682895</v>
       </c>
-      <c r="U13" s="60">
+      <c r="U13" s="54">
         <v>0.73170731707317005</v>
       </c>
     </row>
@@ -1813,7 +1796,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1851,55 +1834,55 @@
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1964,7 +1947,7 @@
       <c r="T2" s="13">
         <v>0.48780487804877998</v>
       </c>
-      <c r="U2" s="29">
+      <c r="U2" s="28">
         <v>0.439024390243902</v>
       </c>
     </row>
@@ -2003,34 +1986,34 @@
       <c r="K3" s="5">
         <v>0.60975609756097504</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="42">
         <v>0.78658536585365801</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="43">
         <v>0.76219512195121897</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="42">
         <v>0.75609756097560898</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="43">
         <v>0.81707317073170704</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="42">
         <v>0.82317073170731703</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="43">
         <v>0.42073170731707299</v>
       </c>
-      <c r="R3" s="48">
+      <c r="R3" s="42">
         <v>0.77439024390243905</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="43">
         <v>0.792682926829268</v>
       </c>
-      <c r="T3" s="48">
+      <c r="T3" s="42">
         <v>0.68902439024390205</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="29">
         <v>0.73780487804878003</v>
       </c>
     </row>
@@ -2054,37 +2037,37 @@
       <c r="F4" s="20">
         <v>1</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="52">
         <v>0.51219512195121897</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="53">
         <v>0.51219512195121897</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>0.45121951219512102</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <v>0.707317073170731</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>0.60975609756097504</v>
       </c>
       <c r="L4" s="22">
         <v>0.78048780487804803</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>0.76219512195121897</v>
       </c>
       <c r="N4" s="22">
         <v>0.75</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="37">
         <v>0.82317073170731703</v>
       </c>
-      <c r="P4" s="59">
+      <c r="P4" s="53">
         <v>0.82926829268292601</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>0.42073170731707299</v>
       </c>
       <c r="R4" s="22">
@@ -2096,7 +2079,7 @@
       <c r="T4" s="22">
         <v>0.68292682926829196</v>
       </c>
-      <c r="U4" s="53">
+      <c r="U4" s="47">
         <v>0.76219512195121897</v>
       </c>
     </row>
@@ -2113,22 +2096,22 @@
       <c r="H5" s="3">
         <v>0.50609756097560898</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <v>0.45121951219512102</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="34">
         <v>0.70121951219512102</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <v>0.60975609756097504</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="40">
         <v>0.78658536585365801</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <v>0.76219512195121897</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="40">
         <v>0.75609756097560898</v>
       </c>
       <c r="O5" s="5">
@@ -2137,19 +2120,19 @@
       <c r="P5" s="3">
         <v>0.82317073170731703</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <v>0.42073170731707299</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="40">
         <v>0.77439024390243905</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="41">
         <v>0.792682926829268</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="40">
         <v>0.68902439024390205</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5" s="48">
         <v>0.76219512195121897</v>
       </c>
     </row>
@@ -2215,7 +2198,7 @@
       <c r="T6" s="13">
         <v>0</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2254,13 +2237,13 @@
       <c r="K7" s="5">
         <v>0.55487804878048697</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="42">
         <v>0.81707317073170704</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="43">
         <v>0.76829268292682895</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="42">
         <v>0.76829268292682895</v>
       </c>
       <c r="O7" s="5">
@@ -2281,7 +2264,7 @@
       <c r="T7" s="3">
         <v>0.69512195121951204</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="29">
         <v>0.62195121951219501</v>
       </c>
     </row>
@@ -2311,13 +2294,13 @@
       <c r="H8" s="22">
         <v>0.55487804878048697</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="46">
         <v>0.44512195121951198</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="53">
         <v>0.68292682926829196</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="46">
         <v>0.585365853658536</v>
       </c>
       <c r="L8" s="22">
@@ -2329,25 +2312,25 @@
       <c r="N8" s="22">
         <v>0.76219512195121897</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="46">
         <v>0.84146341463414598</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8" s="44">
         <v>0.82926829268292601</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="46">
         <v>0.35975609756097499</v>
       </c>
-      <c r="R8" s="50">
+      <c r="R8" s="44">
         <v>0.75609756097560898</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="46">
         <v>0.80487804878048697</v>
       </c>
       <c r="T8" s="22">
         <v>0.68902439024390205</v>
       </c>
-      <c r="U8" s="53">
+      <c r="U8" s="47">
         <v>0.75</v>
       </c>
     </row>
@@ -2358,49 +2341,49 @@
         <v>27</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="45">
+      <c r="G9" s="39">
         <v>0.56097560975609695</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="40">
         <v>0.56097560975609695</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="49">
         <v>0.44512195121951198</v>
       </c>
       <c r="J9" s="3">
         <v>0.67073170731707299</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="49">
         <v>0.585365853658536</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="40">
         <v>0.81707317073170704</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="41">
         <v>0.76829268292682895</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="40">
         <v>0.76829268292682895</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="49">
         <v>0.84146341463414598</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="50">
         <v>0.82926829268292601</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="49">
         <v>0.35975609756097499</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="50">
         <v>0.75609756097560898</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="49">
         <v>0.80487804878048697</v>
       </c>
-      <c r="T9" s="46">
+      <c r="T9" s="40">
         <v>0.69512195121951204</v>
       </c>
-      <c r="U9" s="54">
+      <c r="U9" s="48">
         <v>0.75</v>
       </c>
     </row>
@@ -2466,7 +2449,7 @@
       <c r="T10" s="13">
         <v>0</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="28">
         <v>6.0975609756097502E-3</v>
       </c>
     </row>
@@ -2532,7 +2515,7 @@
       <c r="T11" s="3">
         <v>0.32317073170731703</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="29">
         <v>0.53048780487804803</v>
       </c>
     </row>
@@ -2556,49 +2539,49 @@
       <c r="F12" s="20">
         <v>1</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="52">
         <v>0.54878048780487798</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="53">
         <v>0.54878048780487798</v>
       </c>
-      <c r="I12" s="52">
+      <c r="I12" s="46">
         <v>0.41463414634146301</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="44">
         <v>0.585365853658536</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="46">
         <v>0.542682926829268</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="44">
         <v>0.72560975609756095</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="46">
         <v>0.71951219512195097</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="44">
         <v>0.69512195121951204</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="46">
         <v>0.78048780487804803</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="44">
         <v>0.77439024390243905</v>
       </c>
-      <c r="Q12" s="43">
+      <c r="Q12" s="37">
         <v>0.37195121951219501</v>
       </c>
-      <c r="R12" s="50">
+      <c r="R12" s="44">
         <v>0.71341463414634099</v>
       </c>
-      <c r="S12" s="52">
+      <c r="S12" s="46">
         <v>0.73780487804878003</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12" s="44">
         <v>0.51829268292682895</v>
       </c>
-      <c r="U12" s="53">
+      <c r="U12" s="47">
         <v>0.73170731707317005</v>
       </c>
     </row>
@@ -2617,43 +2600,43 @@
       <c r="H13" s="18">
         <v>0.542682926829268</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="45">
         <v>0.41463414634146301</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="45">
         <v>0.585365853658536</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="45">
         <v>0.542682926829268</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="45">
         <v>0.72560975609756095</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="45">
         <v>0.71951219512195097</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="45">
         <v>0.69512195121951204</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="45">
         <v>0.78048780487804803</v>
       </c>
-      <c r="P13" s="51">
+      <c r="P13" s="45">
         <v>0.77439024390243905</v>
       </c>
       <c r="Q13" s="18">
         <v>0.37195121951219501</v>
       </c>
-      <c r="R13" s="51">
+      <c r="R13" s="45">
         <v>0.71341463414634099</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="45">
         <v>0.73780487804878003</v>
       </c>
-      <c r="T13" s="51">
+      <c r="T13" s="45">
         <v>0.51829268292682895</v>
       </c>
-      <c r="U13" s="57">
+      <c r="U13" s="51">
         <v>0.73170731707317005</v>
       </c>
     </row>
@@ -2705,55 +2688,55 @@
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2761,7 +2744,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2773,7 +2756,7 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="72">
         <v>1</v>
       </c>
       <c r="G2" s="14">
@@ -2818,7 +2801,7 @@
       <c r="T2" s="8">
         <v>2E-3</v>
       </c>
-      <c r="U2" s="71">
+      <c r="U2" s="65">
         <v>0.08</v>
       </c>
     </row>
@@ -2827,7 +2810,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -2839,7 +2822,7 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="73">
         <v>1</v>
       </c>
       <c r="G3" s="5">
@@ -2866,7 +2849,7 @@
       <c r="N3" s="2">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O3" s="86">
+      <c r="O3" s="80">
         <v>0.28799999999999998</v>
       </c>
       <c r="P3" s="2">
@@ -2875,16 +2858,16 @@
       <c r="Q3">
         <v>0.33200000000000002</v>
       </c>
-      <c r="R3" s="91">
+      <c r="R3" s="85">
         <v>0.33</v>
       </c>
-      <c r="S3" s="86">
+      <c r="S3" s="80">
         <v>0.33</v>
       </c>
-      <c r="T3" s="82">
+      <c r="T3" s="76">
         <v>0.30599999999999999</v>
       </c>
-      <c r="U3" s="73">
+      <c r="U3" s="67">
         <v>0.3</v>
       </c>
     </row>
@@ -2893,7 +2876,7 @@
         <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -2905,7 +2888,7 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="74">
         <v>1</v>
       </c>
       <c r="G4" s="21">
@@ -2917,19 +2900,19 @@
       <c r="I4" s="18">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J4" s="89">
+      <c r="J4" s="83">
         <v>0.248</v>
       </c>
       <c r="K4" s="18">
         <v>0.26800000000000002</v>
       </c>
-      <c r="L4" s="89">
+      <c r="L4" s="83">
         <v>0.27800000000000002</v>
       </c>
       <c r="M4" s="18">
         <v>0.252</v>
       </c>
-      <c r="N4" s="90">
+      <c r="N4" s="84">
         <v>0.28399999999999997</v>
       </c>
       <c r="O4" s="18">
@@ -2941,69 +2924,69 @@
       <c r="Q4" s="18">
         <v>0.32400000000000001</v>
       </c>
-      <c r="R4" s="90">
+      <c r="R4" s="84">
         <v>0.33200000000000002</v>
       </c>
-      <c r="S4" s="92">
+      <c r="S4" s="86">
         <v>0.33200000000000002</v>
       </c>
       <c r="T4" s="17">
         <v>0.32</v>
       </c>
-      <c r="U4" s="93">
+      <c r="U4" s="87">
         <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="72"/>
+      <c r="B5" s="66"/>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="77">
+      <c r="F5" s="73"/>
+      <c r="G5" s="71">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="75">
         <v>0.15</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="69">
         <v>0.26200000000000001</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="75">
         <v>0.22600000000000001</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="69">
         <v>0.26800000000000002</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="75">
         <v>0.254</v>
       </c>
-      <c r="M5" s="75">
+      <c r="M5" s="69">
         <v>0.224</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="75">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O5" s="87">
+      <c r="O5" s="81">
         <v>0.28799999999999998</v>
       </c>
-      <c r="P5" s="81">
+      <c r="P5" s="75">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q5" s="75">
+      <c r="Q5" s="69">
         <v>0.32200000000000001</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="77">
         <v>0.33</v>
       </c>
-      <c r="S5" s="87">
+      <c r="S5" s="81">
         <v>0.33</v>
       </c>
-      <c r="T5" s="88">
+      <c r="T5" s="82">
         <v>0.308</v>
       </c>
-      <c r="U5" s="95">
+      <c r="U5" s="89">
         <v>0.30199999999999999</v>
       </c>
     </row>
@@ -3012,7 +2995,7 @@
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3024,7 +3007,7 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="72">
         <v>1</v>
       </c>
       <c r="G6" s="5">
@@ -3069,7 +3052,7 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="73">
+      <c r="U6" s="67">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -3078,7 +3061,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -3090,7 +3073,7 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="73">
         <v>1</v>
       </c>
       <c r="G7" s="5">
@@ -3099,13 +3082,13 @@
       <c r="H7" s="2">
         <v>0.26200000000000001</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="80">
         <v>0.27400000000000002</v>
       </c>
       <c r="J7" s="2">
         <v>0.20599999999999999</v>
       </c>
-      <c r="K7" s="84">
+      <c r="K7" s="78">
         <v>0.28199999999999997</v>
       </c>
       <c r="L7" s="2">
@@ -3120,10 +3103,10 @@
       <c r="O7">
         <v>0.29799999999999999</v>
       </c>
-      <c r="P7" s="82">
+      <c r="P7" s="76">
         <v>0.29199999999999998</v>
       </c>
-      <c r="Q7" s="86">
+      <c r="Q7" s="80">
         <v>0.35399999999999998</v>
       </c>
       <c r="R7" s="2">
@@ -3135,7 +3118,7 @@
       <c r="T7" s="2">
         <v>0.23200000000000001</v>
       </c>
-      <c r="U7" s="73">
+      <c r="U7" s="67">
         <v>0.214</v>
       </c>
     </row>
@@ -3144,7 +3127,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -3156,37 +3139,37 @@
       <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="80">
-        <v>1</v>
-      </c>
-      <c r="G8" s="36">
+      <c r="F8" s="74">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35">
         <v>0.27400000000000002</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="76">
         <v>0.27400000000000002</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="80">
         <v>0.27400000000000002</v>
       </c>
       <c r="J8" s="2">
         <v>0.24199999999999999</v>
       </c>
-      <c r="K8" s="86">
+      <c r="K8" s="80">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L8" s="82">
+      <c r="L8" s="76">
         <v>0.29799999999999999</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="78">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N8" s="91">
+      <c r="N8" s="85">
         <v>0.27800000000000002</v>
       </c>
-      <c r="O8" s="84">
+      <c r="O8" s="78">
         <v>0.29199999999999998</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="85">
         <v>0.28799999999999998</v>
       </c>
       <c r="Q8">
@@ -3195,66 +3178,66 @@
       <c r="R8" s="2">
         <v>0.32200000000000001</v>
       </c>
-      <c r="S8" s="86">
+      <c r="S8" s="80">
         <v>0.33</v>
       </c>
-      <c r="T8" s="91">
+      <c r="T8" s="85">
         <v>0.28599999999999998</v>
       </c>
-      <c r="U8" s="73">
+      <c r="U8" s="67">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="72"/>
+      <c r="B9" s="66"/>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="67">
+      <c r="F9" s="73"/>
+      <c r="G9" s="61">
         <v>0.27</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="77">
         <v>0.27</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="81">
         <v>0.27400000000000002</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="75">
         <v>0.20799999999999999</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="81">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="82">
         <v>0.26800000000000002</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="81">
         <v>0.28599999999999998</v>
       </c>
-      <c r="N9" s="81">
+      <c r="N9" s="75">
         <v>0.254</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O9" s="79">
         <v>0.29199999999999998</v>
       </c>
-      <c r="P9" s="83">
+      <c r="P9" s="77">
         <v>0.28599999999999998</v>
       </c>
-      <c r="Q9" s="75">
+      <c r="Q9" s="69">
         <v>0.32800000000000001</v>
       </c>
-      <c r="R9" s="81">
+      <c r="R9" s="75">
         <v>0.318</v>
       </c>
-      <c r="S9" s="75">
+      <c r="S9" s="69">
         <v>0.32600000000000001</v>
       </c>
-      <c r="T9" s="81">
+      <c r="T9" s="75">
         <v>0.23200000000000001</v>
       </c>
-      <c r="U9" s="76">
+      <c r="U9" s="70">
         <v>0.27800000000000002</v>
       </c>
     </row>
@@ -3263,7 +3246,7 @@
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3275,7 +3258,7 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="72">
         <v>1</v>
       </c>
       <c r="G10" s="14">
@@ -3320,7 +3303,7 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="73">
+      <c r="U10" s="67">
         <v>0</v>
       </c>
     </row>
@@ -3329,7 +3312,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
@@ -3341,7 +3324,7 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="73">
         <v>1</v>
       </c>
       <c r="G11" s="5">
@@ -3350,7 +3333,7 @@
       <c r="H11" s="2">
         <v>0.03</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="78">
         <v>0.28399999999999997</v>
       </c>
       <c r="J11" s="2">
@@ -3374,19 +3357,19 @@
       <c r="P11" s="2">
         <v>0.218</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="78">
         <v>0.372</v>
       </c>
       <c r="R11" s="2">
         <v>0.318</v>
       </c>
-      <c r="S11" s="84">
+      <c r="S11" s="78">
         <v>0.33400000000000002</v>
       </c>
       <c r="T11" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="U11" s="73">
+      <c r="U11" s="67">
         <v>0.16800000000000001</v>
       </c>
     </row>
@@ -3395,7 +3378,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -3407,7 +3390,7 @@
       <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="74">
         <v>1</v>
       </c>
       <c r="G12" s="21">
@@ -3419,7 +3402,7 @@
       <c r="I12">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J12" s="82">
+      <c r="J12" s="76">
         <v>0.29799999999999999</v>
       </c>
       <c r="K12">
@@ -3443,7 +3426,7 @@
       <c r="Q12">
         <v>0.32200000000000001</v>
       </c>
-      <c r="R12" s="91">
+      <c r="R12" s="85">
         <v>0.33</v>
       </c>
       <c r="S12">
@@ -3452,7 +3435,7 @@
       <c r="T12" s="2">
         <v>6.2E-2</v>
       </c>
-      <c r="U12" s="94">
+      <c r="U12" s="88">
         <v>0.30199999999999999</v>
       </c>
     </row>
@@ -3464,50 +3447,50 @@
         <v>27</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="80"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="18">
         <v>0.2</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="75">
         <v>0.2</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="69">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="82">
         <v>0.29799999999999999</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="69">
         <v>0.248</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="75">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M13" s="75">
+      <c r="M13" s="69">
         <v>0.20799999999999999</v>
       </c>
-      <c r="N13" s="81">
+      <c r="N13" s="75">
         <v>0.23</v>
       </c>
-      <c r="O13" s="75">
+      <c r="O13" s="69">
         <v>0.20799999999999999</v>
       </c>
-      <c r="P13" s="81">
+      <c r="P13" s="75">
         <v>0.20399999999999999</v>
       </c>
-      <c r="Q13" s="75">
+      <c r="Q13" s="69">
         <v>0.32200000000000001</v>
       </c>
-      <c r="R13" s="83">
+      <c r="R13" s="77">
         <v>0.33</v>
       </c>
-      <c r="S13" s="75">
+      <c r="S13" s="69">
         <v>0.32600000000000001</v>
       </c>
-      <c r="T13" s="81">
+      <c r="T13" s="75">
         <v>6.2E-2</v>
       </c>
-      <c r="U13" s="76">
+      <c r="U13" s="70">
         <v>0.28199999999999997</v>
       </c>
     </row>
@@ -3521,7 +3504,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3559,55 +3542,55 @@
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3615,7 +3598,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -3627,7 +3610,7 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="72">
         <v>1</v>
       </c>
       <c r="G2" s="9">
@@ -3672,7 +3655,7 @@
       <c r="T2" s="8">
         <v>0</v>
       </c>
-      <c r="U2" s="71">
+      <c r="U2" s="65">
         <v>0</v>
       </c>
     </row>
@@ -3681,64 +3664,64 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="99">
-        <v>1</v>
-      </c>
-      <c r="F3" s="79">
-        <v>1</v>
-      </c>
-      <c r="G3" s="98">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="73">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>0.172839506172839</v>
       </c>
       <c r="H3" s="2">
         <v>0.172839506172839</v>
       </c>
-      <c r="I3" s="98">
+      <c r="I3">
         <v>7.4074074074074001E-2</v>
       </c>
       <c r="J3" s="2">
         <v>0.296296296296296</v>
       </c>
-      <c r="K3" s="98">
+      <c r="K3">
         <v>0.18518518518518501</v>
       </c>
       <c r="L3" s="2">
         <v>0.234567901234567</v>
       </c>
-      <c r="M3" s="98">
+      <c r="M3">
         <v>0.27777777777777701</v>
       </c>
       <c r="N3" s="2">
         <v>0.296296296296296</v>
       </c>
-      <c r="O3" s="98">
+      <c r="O3">
         <v>0.234567901234567</v>
       </c>
       <c r="P3" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="Q3" s="98">
+      <c r="Q3">
         <v>0.11111111111111099</v>
       </c>
       <c r="R3" s="2">
         <v>0.234567901234567</v>
       </c>
-      <c r="S3" s="98">
+      <c r="S3">
         <v>0.29012345679012302</v>
       </c>
       <c r="T3" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="U3" s="73">
+      <c r="U3" s="67">
         <v>0.24691358024691301</v>
       </c>
     </row>
@@ -3747,7 +3730,7 @@
         <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -3759,7 +3742,7 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="74">
         <v>1</v>
       </c>
       <c r="G4" s="18">
@@ -3804,62 +3787,60 @@
       <c r="T4" s="17">
         <v>0.22839506172839499</v>
       </c>
-      <c r="U4" s="60">
+      <c r="U4" s="54">
         <v>0.25308641975308599</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="66"/>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="98">
+      <c r="F5" s="73"/>
+      <c r="G5">
         <v>0.179012345679012</v>
       </c>
       <c r="H5" s="2">
         <v>0.179012345679012</v>
       </c>
-      <c r="I5" s="98">
+      <c r="I5">
         <v>0.117283950617283</v>
       </c>
       <c r="J5" s="2">
         <v>0.296296296296296</v>
       </c>
-      <c r="K5" s="98">
+      <c r="K5">
         <v>0.19135802469135799</v>
       </c>
       <c r="L5" s="2">
         <v>0.234567901234567</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5">
         <v>0.27777777777777701</v>
       </c>
       <c r="N5" s="2">
         <v>0.296296296296296</v>
       </c>
-      <c r="O5" s="98">
+      <c r="O5">
         <v>0.234567901234567</v>
       </c>
       <c r="P5" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="Q5" s="98">
+      <c r="Q5">
         <v>0.117283950617283</v>
       </c>
       <c r="R5" s="2">
         <v>0.234567901234567</v>
       </c>
-      <c r="S5" s="98">
+      <c r="S5">
         <v>0.29012345679012302</v>
       </c>
       <c r="T5" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="U5" s="73">
+      <c r="U5" s="67">
         <v>0.25308641975308599</v>
       </c>
     </row>
@@ -3868,7 +3849,7 @@
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3880,7 +3861,7 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="72">
         <v>1</v>
       </c>
       <c r="G6" s="9">
@@ -3925,7 +3906,7 @@
       <c r="T6" s="8">
         <v>0</v>
       </c>
-      <c r="U6" s="71">
+      <c r="U6" s="65">
         <v>0</v>
       </c>
     </row>
@@ -3934,64 +3915,64 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="99">
-        <v>1</v>
-      </c>
-      <c r="F7" s="79">
-        <v>1</v>
-      </c>
-      <c r="G7" s="98">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>0.16666666666666599</v>
       </c>
       <c r="H7" s="2">
         <v>0.16666666666666599</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7">
         <v>7.4074074074074001E-2</v>
       </c>
       <c r="J7" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="K7" s="98">
+      <c r="K7">
         <v>0.16049382716049301</v>
       </c>
       <c r="L7" s="2">
         <v>0.22222222222222199</v>
       </c>
-      <c r="M7" s="98">
+      <c r="M7">
         <v>0.25925925925925902</v>
       </c>
       <c r="N7" s="2">
         <v>0.27160493827160398</v>
       </c>
-      <c r="O7" s="98">
+      <c r="O7">
         <v>0.24074074074074001</v>
       </c>
       <c r="P7" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="Q7" s="98">
+      <c r="Q7">
         <v>0.12962962962962901</v>
       </c>
       <c r="R7" s="2">
         <v>0.11111111111111099</v>
       </c>
-      <c r="S7" s="98">
+      <c r="S7">
         <v>0.21604938271604901</v>
       </c>
       <c r="T7" s="2">
         <v>0.24074074074074001</v>
       </c>
-      <c r="U7" s="73">
+      <c r="U7" s="67">
         <v>0.29012345679012302</v>
       </c>
     </row>
@@ -4000,7 +3981,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -4012,7 +3993,7 @@
       <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="74">
         <v>1</v>
       </c>
       <c r="G8" s="18">
@@ -4057,62 +4038,60 @@
       <c r="T8" s="17">
         <v>0.234567901234567</v>
       </c>
-      <c r="U8" s="60">
+      <c r="U8" s="54">
         <v>0.265432098765432</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="66"/>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="98">
+      <c r="F9" s="73"/>
+      <c r="G9">
         <v>0.16666666666666599</v>
       </c>
       <c r="H9" s="2">
         <v>0.16666666666666599</v>
       </c>
-      <c r="I9" s="98">
+      <c r="I9">
         <v>9.8765432098765399E-2</v>
       </c>
       <c r="J9" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="K9" s="98">
+      <c r="K9">
         <v>0.203703703703703</v>
       </c>
       <c r="L9" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="M9" s="98">
+      <c r="M9">
         <v>0.25925925925925902</v>
       </c>
       <c r="N9" s="2">
         <v>0.27160493827160398</v>
       </c>
-      <c r="O9" s="98">
+      <c r="O9">
         <v>0.24074074074074001</v>
       </c>
       <c r="P9" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="Q9" s="98">
+      <c r="Q9">
         <v>0.141975308641975</v>
       </c>
       <c r="R9" s="2">
         <v>0.234567901234567</v>
       </c>
-      <c r="S9" s="98">
+      <c r="S9">
         <v>0.21604938271604901</v>
       </c>
       <c r="T9" s="2">
         <v>0.24691358024691301</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U9" s="67">
         <v>0.29012345679012302</v>
       </c>
     </row>
@@ -4121,7 +4100,7 @@
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4133,7 +4112,7 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="72">
         <v>1</v>
       </c>
       <c r="G10" s="9">
@@ -4178,7 +4157,7 @@
       <c r="T10" s="8">
         <v>0</v>
       </c>
-      <c r="U10" s="71">
+      <c r="U10" s="65">
         <v>0</v>
       </c>
     </row>
@@ -4187,64 +4166,64 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="99">
-        <v>1</v>
-      </c>
-      <c r="F11" s="79">
-        <v>1</v>
-      </c>
-      <c r="G11" s="98">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>0.148148148148148</v>
       </c>
       <c r="H11" s="2">
         <v>0.148148148148148</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11">
         <v>5.5555555555555497E-2</v>
       </c>
       <c r="J11" s="2">
         <v>0.21604938271604901</v>
       </c>
-      <c r="K11" s="98">
+      <c r="K11">
         <v>0.172839506172839</v>
       </c>
       <c r="L11" s="2">
         <v>0.22839506172839499</v>
       </c>
-      <c r="M11" s="98">
+      <c r="M11">
         <v>0.25308641975308599</v>
       </c>
       <c r="N11" s="2">
         <v>0.27777777777777701</v>
       </c>
-      <c r="O11" s="98">
+      <c r="O11">
         <v>0.22222222222222199</v>
       </c>
       <c r="P11" s="2">
         <v>0.19753086419752999</v>
       </c>
-      <c r="Q11" s="98">
+      <c r="Q11">
         <v>8.0246913580246895E-2</v>
       </c>
       <c r="R11" s="2">
         <v>0.179012345679012</v>
       </c>
-      <c r="S11" s="98">
+      <c r="S11">
         <v>0.22222222222222199</v>
       </c>
       <c r="T11" s="2">
         <v>0.22222222222222199</v>
       </c>
-      <c r="U11" s="73">
+      <c r="U11" s="67">
         <v>0.25925925925925902</v>
       </c>
     </row>
@@ -4253,7 +4232,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -4265,7 +4244,7 @@
       <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="74">
         <v>1</v>
       </c>
       <c r="G12" s="18">
@@ -4310,62 +4289,62 @@
       <c r="T12" s="17">
         <v>0.22839506172839499</v>
       </c>
-      <c r="U12" s="60">
+      <c r="U12" s="54">
         <v>0.28395061728394999</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="81" t="s">
+      <c r="B13" s="99"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="75">
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="69">
         <v>0.15432098765432001</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="75">
         <v>0.15432098765432001</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="69">
         <v>9.8765432098765399E-2</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="75">
         <v>0.25925925925925902</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="69">
         <v>0.22222222222222199</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="75">
         <v>0.234567901234567</v>
       </c>
-      <c r="M13" s="75">
+      <c r="M13" s="69">
         <v>0.25308641975308599</v>
       </c>
-      <c r="N13" s="81">
+      <c r="N13" s="75">
         <v>0.27777777777777701</v>
       </c>
-      <c r="O13" s="75">
+      <c r="O13" s="69">
         <v>0.234567901234567</v>
       </c>
-      <c r="P13" s="81">
+      <c r="P13" s="75">
         <v>0.22839506172839499</v>
       </c>
-      <c r="Q13" s="75">
+      <c r="Q13" s="69">
         <v>8.0246913580246895E-2</v>
       </c>
-      <c r="R13" s="81">
+      <c r="R13" s="75">
         <v>0.209876543209876</v>
       </c>
-      <c r="S13" s="75">
+      <c r="S13" s="69">
         <v>0.234567901234567</v>
       </c>
-      <c r="T13" s="81">
+      <c r="T13" s="75">
         <v>0.22839506172839499</v>
       </c>
-      <c r="U13" s="76">
+      <c r="U13" s="70">
         <v>0.29012345679012302</v>
       </c>
     </row>
@@ -4417,55 +4396,55 @@
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4473,7 +4452,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -4485,52 +4464,52 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="78">
-        <v>1</v>
-      </c>
-      <c r="G2" s="96">
-        <v>0</v>
-      </c>
-      <c r="H2" s="105">
-        <v>0</v>
-      </c>
-      <c r="I2" s="96">
+      <c r="F2" s="72">
+        <v>1</v>
+      </c>
+      <c r="G2" s="90">
+        <v>0</v>
+      </c>
+      <c r="H2" s="97">
+        <v>0</v>
+      </c>
+      <c r="I2" s="90">
         <v>1.2E-2</v>
       </c>
-      <c r="J2" s="105">
+      <c r="J2" s="97">
         <v>0.02</v>
       </c>
-      <c r="K2" s="96">
-        <v>0</v>
-      </c>
-      <c r="L2" s="105">
-        <v>0</v>
-      </c>
-      <c r="M2" s="96">
+      <c r="K2" s="90">
+        <v>0</v>
+      </c>
+      <c r="L2" s="97">
+        <v>0</v>
+      </c>
+      <c r="M2" s="90">
         <v>0.108</v>
       </c>
-      <c r="N2" s="105">
+      <c r="N2" s="97">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O2" s="96">
-        <v>0</v>
-      </c>
-      <c r="P2" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="96">
-        <v>0</v>
-      </c>
-      <c r="R2" s="105">
-        <v>0</v>
-      </c>
-      <c r="S2" s="96">
-        <v>0</v>
-      </c>
-      <c r="T2" s="105">
-        <v>0</v>
-      </c>
-      <c r="U2" s="97">
+      <c r="O2" s="90">
+        <v>0</v>
+      </c>
+      <c r="P2" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="90">
+        <v>0</v>
+      </c>
+      <c r="R2" s="97">
+        <v>0</v>
+      </c>
+      <c r="S2" s="90">
+        <v>0</v>
+      </c>
+      <c r="T2" s="97">
+        <v>0</v>
+      </c>
+      <c r="U2" s="91">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -4539,64 +4518,64 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="99">
-        <v>1</v>
-      </c>
-      <c r="F3" s="79">
-        <v>1</v>
-      </c>
-      <c r="G3" s="100">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="73">
+        <v>1</v>
+      </c>
+      <c r="G3" s="92">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="96">
         <v>0.47799999999999998</v>
       </c>
-      <c r="I3" s="100">
+      <c r="I3" s="92">
         <v>0.44800000000000001</v>
       </c>
-      <c r="J3" s="104">
+      <c r="J3" s="96">
         <v>0.59799999999999998</v>
       </c>
-      <c r="K3" s="100">
+      <c r="K3" s="92">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L3" s="104">
+      <c r="L3" s="96">
         <v>0.63600000000000001</v>
       </c>
-      <c r="M3" s="100">
+      <c r="M3" s="92">
         <v>0.63</v>
       </c>
-      <c r="N3" s="104">
+      <c r="N3" s="96">
         <v>0.64800000000000002</v>
       </c>
-      <c r="O3" s="100">
+      <c r="O3" s="92">
         <v>0.73399999999999999</v>
       </c>
-      <c r="P3" s="104">
+      <c r="P3" s="96">
         <v>0.73</v>
       </c>
-      <c r="Q3" s="100">
+      <c r="Q3" s="92">
         <v>0.41</v>
       </c>
-      <c r="R3" s="104">
+      <c r="R3" s="96">
         <v>0.55400000000000005</v>
       </c>
-      <c r="S3" s="100">
+      <c r="S3" s="92">
         <v>0.59199999999999997</v>
       </c>
-      <c r="T3" s="104">
+      <c r="T3" s="96">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U3" s="101">
+      <c r="U3" s="93">
         <v>0.58399999999999996</v>
       </c>
     </row>
@@ -4605,7 +4584,7 @@
         <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -4617,107 +4596,105 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="80">
-        <v>1</v>
-      </c>
-      <c r="G4" s="102">
+      <c r="F4" s="74">
+        <v>1</v>
+      </c>
+      <c r="G4" s="94">
         <v>0.48</v>
       </c>
-      <c r="H4" s="106">
+      <c r="H4" s="98">
         <v>0.48</v>
       </c>
-      <c r="I4" s="102">
+      <c r="I4" s="94">
         <v>0.44800000000000001</v>
       </c>
-      <c r="J4" s="106">
+      <c r="J4" s="98">
         <v>0.60399999999999998</v>
       </c>
-      <c r="K4" s="102">
+      <c r="K4" s="94">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L4" s="106">
+      <c r="L4" s="98">
         <v>0.64400000000000002</v>
       </c>
-      <c r="M4" s="102">
+      <c r="M4" s="94">
         <v>0.63</v>
       </c>
-      <c r="N4" s="106">
+      <c r="N4" s="98">
         <v>0.64800000000000002</v>
       </c>
-      <c r="O4" s="102">
+      <c r="O4" s="94">
         <v>0.73399999999999999</v>
       </c>
-      <c r="P4" s="106">
+      <c r="P4" s="98">
         <v>0.73</v>
       </c>
-      <c r="Q4" s="102">
+      <c r="Q4" s="94">
         <v>0.42199999999999999</v>
       </c>
-      <c r="R4" s="106">
+      <c r="R4" s="98">
         <v>0.55400000000000005</v>
       </c>
-      <c r="S4" s="102">
+      <c r="S4" s="94">
         <v>0.59399999999999997</v>
       </c>
-      <c r="T4" s="106">
+      <c r="T4" s="98">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U4" s="103">
+      <c r="U4" s="95">
         <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="98"/>
+      <c r="B5" s="66"/>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="100">
+      <c r="F5" s="73"/>
+      <c r="G5" s="92">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H5" s="104">
+      <c r="H5" s="96">
         <v>0.47799999999999998</v>
       </c>
-      <c r="I5" s="100">
+      <c r="I5" s="92">
         <v>0.44800000000000001</v>
       </c>
-      <c r="J5" s="104">
+      <c r="J5" s="96">
         <v>0.59799999999999998</v>
       </c>
-      <c r="K5" s="100">
+      <c r="K5" s="92">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L5" s="104">
+      <c r="L5" s="96">
         <v>0.63600000000000001</v>
       </c>
-      <c r="M5" s="100">
+      <c r="M5" s="92">
         <v>0.63</v>
       </c>
-      <c r="N5" s="104">
+      <c r="N5" s="96">
         <v>0.64800000000000002</v>
       </c>
-      <c r="O5" s="100">
+      <c r="O5" s="92">
         <v>0.73399999999999999</v>
       </c>
-      <c r="P5" s="104">
+      <c r="P5" s="96">
         <v>0.73</v>
       </c>
-      <c r="Q5" s="100">
+      <c r="Q5" s="92">
         <v>0.41</v>
       </c>
-      <c r="R5" s="104">
+      <c r="R5" s="96">
         <v>0.55400000000000005</v>
       </c>
-      <c r="S5" s="100">
+      <c r="S5" s="92">
         <v>0.59199999999999997</v>
       </c>
-      <c r="T5" s="104">
+      <c r="T5" s="96">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U5" s="101">
+      <c r="U5" s="93">
         <v>0.58399999999999996</v>
       </c>
     </row>
@@ -4726,7 +4703,7 @@
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -4738,52 +4715,52 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="78">
-        <v>1</v>
-      </c>
-      <c r="G6" s="96">
-        <v>0</v>
-      </c>
-      <c r="H6" s="105">
-        <v>0</v>
-      </c>
-      <c r="I6" s="96">
-        <v>0</v>
-      </c>
-      <c r="J6" s="105">
-        <v>0</v>
-      </c>
-      <c r="K6" s="96">
-        <v>0</v>
-      </c>
-      <c r="L6" s="105">
-        <v>0</v>
-      </c>
-      <c r="M6" s="96">
-        <v>0</v>
-      </c>
-      <c r="N6" s="105">
-        <v>0</v>
-      </c>
-      <c r="O6" s="96">
-        <v>0</v>
-      </c>
-      <c r="P6" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="96">
-        <v>0</v>
-      </c>
-      <c r="R6" s="105">
-        <v>0</v>
-      </c>
-      <c r="S6" s="96">
-        <v>0</v>
-      </c>
-      <c r="T6" s="105">
-        <v>0</v>
-      </c>
-      <c r="U6" s="97">
+      <c r="F6" s="72">
+        <v>1</v>
+      </c>
+      <c r="G6" s="90">
+        <v>0</v>
+      </c>
+      <c r="H6" s="97">
+        <v>0</v>
+      </c>
+      <c r="I6" s="90">
+        <v>0</v>
+      </c>
+      <c r="J6" s="97">
+        <v>0</v>
+      </c>
+      <c r="K6" s="90">
+        <v>0</v>
+      </c>
+      <c r="L6" s="97">
+        <v>0</v>
+      </c>
+      <c r="M6" s="90">
+        <v>0</v>
+      </c>
+      <c r="N6" s="97">
+        <v>0</v>
+      </c>
+      <c r="O6" s="90">
+        <v>0</v>
+      </c>
+      <c r="P6" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="90">
+        <v>0</v>
+      </c>
+      <c r="R6" s="97">
+        <v>0</v>
+      </c>
+      <c r="S6" s="90">
+        <v>0</v>
+      </c>
+      <c r="T6" s="97">
+        <v>0</v>
+      </c>
+      <c r="U6" s="91">
         <v>0</v>
       </c>
     </row>
@@ -4792,64 +4769,64 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="99">
-        <v>1</v>
-      </c>
-      <c r="F7" s="79">
-        <v>1</v>
-      </c>
-      <c r="G7" s="100">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7" s="92">
         <v>0.498</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="96">
         <v>0.498</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="92">
         <v>0.43</v>
       </c>
-      <c r="J7" s="104">
+      <c r="J7" s="96">
         <v>0.52400000000000002</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="92">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L7" s="104">
+      <c r="L7" s="96">
         <v>0.61199999999999999</v>
       </c>
-      <c r="M7" s="100">
+      <c r="M7" s="92">
         <v>0.63800000000000001</v>
       </c>
-      <c r="N7" s="104">
+      <c r="N7" s="96">
         <v>0.61</v>
       </c>
-      <c r="O7" s="100">
+      <c r="O7" s="92">
         <v>0.73399999999999999</v>
       </c>
-      <c r="P7" s="104">
+      <c r="P7" s="96">
         <v>0.74</v>
       </c>
-      <c r="Q7" s="100">
+      <c r="Q7" s="92">
         <v>0.37</v>
       </c>
-      <c r="R7" s="104">
+      <c r="R7" s="96">
         <v>0.128</v>
       </c>
-      <c r="S7" s="100">
+      <c r="S7" s="92">
         <v>0.55200000000000005</v>
       </c>
-      <c r="T7" s="104">
+      <c r="T7" s="96">
         <v>0.51800000000000002</v>
       </c>
-      <c r="U7" s="101">
+      <c r="U7" s="93">
         <v>0.56599999999999995</v>
       </c>
     </row>
@@ -4858,7 +4835,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -4870,107 +4847,105 @@
       <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="80">
-        <v>1</v>
-      </c>
-      <c r="G8" s="102">
+      <c r="F8" s="74">
+        <v>1</v>
+      </c>
+      <c r="G8" s="94">
         <v>0.498</v>
       </c>
-      <c r="H8" s="106">
+      <c r="H8" s="98">
         <v>0.498</v>
       </c>
-      <c r="I8" s="102">
+      <c r="I8" s="94">
         <v>0.43</v>
       </c>
-      <c r="J8" s="106">
+      <c r="J8" s="98">
         <v>0.56399999999999995</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="94">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L8" s="106">
+      <c r="L8" s="98">
         <v>0.61399999999999999</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="94">
         <v>0.63800000000000001</v>
       </c>
-      <c r="N8" s="106">
+      <c r="N8" s="98">
         <v>0.61</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="94">
         <v>0.73399999999999999</v>
       </c>
-      <c r="P8" s="106">
+      <c r="P8" s="98">
         <v>0.74</v>
       </c>
-      <c r="Q8" s="102">
+      <c r="Q8" s="94">
         <v>0.37</v>
       </c>
-      <c r="R8" s="106">
+      <c r="R8" s="98">
         <v>0.51</v>
       </c>
-      <c r="S8" s="102">
+      <c r="S8" s="94">
         <v>0.55400000000000005</v>
       </c>
-      <c r="T8" s="106">
+      <c r="T8" s="98">
         <v>0.52</v>
       </c>
-      <c r="U8" s="103">
+      <c r="U8" s="95">
         <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="66"/>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="100">
+      <c r="F9" s="73"/>
+      <c r="G9" s="92">
         <v>0.498</v>
       </c>
-      <c r="H9" s="104">
+      <c r="H9" s="96">
         <v>0.498</v>
       </c>
-      <c r="I9" s="100">
+      <c r="I9" s="92">
         <v>0.43</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="96">
         <v>0.56399999999999995</v>
       </c>
-      <c r="K9" s="100">
+      <c r="K9" s="92">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L9" s="104">
+      <c r="L9" s="96">
         <v>0.61199999999999999</v>
       </c>
-      <c r="M9" s="100">
+      <c r="M9" s="92">
         <v>0.63800000000000001</v>
       </c>
-      <c r="N9" s="104">
+      <c r="N9" s="96">
         <v>0.61</v>
       </c>
-      <c r="O9" s="100">
+      <c r="O9" s="92">
         <v>0.73399999999999999</v>
       </c>
-      <c r="P9" s="104">
+      <c r="P9" s="96">
         <v>0.74</v>
       </c>
-      <c r="Q9" s="100">
+      <c r="Q9" s="92">
         <v>0.37</v>
       </c>
-      <c r="R9" s="104">
+      <c r="R9" s="96">
         <v>0.51</v>
       </c>
-      <c r="S9" s="100">
+      <c r="S9" s="92">
         <v>0.55400000000000005</v>
       </c>
-      <c r="T9" s="104">
+      <c r="T9" s="96">
         <v>0.51800000000000002</v>
       </c>
-      <c r="U9" s="101">
+      <c r="U9" s="93">
         <v>0.56799999999999995</v>
       </c>
     </row>
@@ -4979,7 +4954,7 @@
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4991,52 +4966,52 @@
       <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="78">
-        <v>1</v>
-      </c>
-      <c r="G10" s="96">
+      <c r="F10" s="72">
+        <v>1</v>
+      </c>
+      <c r="G10" s="90">
         <v>2E-3</v>
       </c>
-      <c r="H10" s="105">
+      <c r="H10" s="97">
         <v>2E-3</v>
       </c>
-      <c r="I10" s="96">
-        <v>0</v>
-      </c>
-      <c r="J10" s="105">
-        <v>0</v>
-      </c>
-      <c r="K10" s="96">
-        <v>0</v>
-      </c>
-      <c r="L10" s="105">
-        <v>0</v>
-      </c>
-      <c r="M10" s="96">
-        <v>0</v>
-      </c>
-      <c r="N10" s="105">
-        <v>0</v>
-      </c>
-      <c r="O10" s="96">
-        <v>0</v>
-      </c>
-      <c r="P10" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="96">
-        <v>0</v>
-      </c>
-      <c r="R10" s="105">
-        <v>0</v>
-      </c>
-      <c r="S10" s="96">
-        <v>0</v>
-      </c>
-      <c r="T10" s="105">
-        <v>0</v>
-      </c>
-      <c r="U10" s="97">
+      <c r="I10" s="90">
+        <v>0</v>
+      </c>
+      <c r="J10" s="97">
+        <v>0</v>
+      </c>
+      <c r="K10" s="90">
+        <v>0</v>
+      </c>
+      <c r="L10" s="97">
+        <v>0</v>
+      </c>
+      <c r="M10" s="90">
+        <v>0</v>
+      </c>
+      <c r="N10" s="97">
+        <v>0</v>
+      </c>
+      <c r="O10" s="90">
+        <v>0</v>
+      </c>
+      <c r="P10" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="90">
+        <v>0</v>
+      </c>
+      <c r="R10" s="97">
+        <v>0</v>
+      </c>
+      <c r="S10" s="90">
+        <v>0</v>
+      </c>
+      <c r="T10" s="97">
+        <v>0</v>
+      </c>
+      <c r="U10" s="91">
         <v>0</v>
       </c>
     </row>
@@ -5045,64 +5020,64 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="99">
-        <v>1</v>
-      </c>
-      <c r="F11" s="79">
-        <v>1</v>
-      </c>
-      <c r="G11" s="100">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1</v>
+      </c>
+      <c r="G11" s="92">
         <v>0.46600000000000003</v>
       </c>
-      <c r="H11" s="104">
+      <c r="H11" s="96">
         <v>0.46600000000000003</v>
       </c>
-      <c r="I11" s="100">
+      <c r="I11" s="92">
         <v>0.39600000000000002</v>
       </c>
-      <c r="J11" s="104">
+      <c r="J11" s="96">
         <v>0.58199999999999996</v>
       </c>
-      <c r="K11" s="100">
+      <c r="K11" s="92">
         <v>0.52800000000000002</v>
       </c>
-      <c r="L11" s="104">
+      <c r="L11" s="96">
         <v>0.63</v>
       </c>
-      <c r="M11" s="100">
+      <c r="M11" s="92">
         <v>0.63600000000000001</v>
       </c>
-      <c r="N11" s="104">
+      <c r="N11" s="96">
         <v>0.61799999999999999</v>
       </c>
-      <c r="O11" s="100">
+      <c r="O11" s="92">
         <v>0.72</v>
       </c>
-      <c r="P11" s="104">
+      <c r="P11" s="96">
         <v>0.72599999999999998</v>
       </c>
-      <c r="Q11" s="100">
+      <c r="Q11" s="92">
         <v>0.36599999999999999</v>
       </c>
-      <c r="R11" s="104">
+      <c r="R11" s="96">
         <v>0.41599999999999998</v>
       </c>
-      <c r="S11" s="100">
+      <c r="S11" s="92">
         <v>0.54200000000000004</v>
       </c>
-      <c r="T11" s="104">
+      <c r="T11" s="96">
         <v>0.55400000000000005</v>
       </c>
-      <c r="U11" s="101">
+      <c r="U11" s="93">
         <v>0.54200000000000004</v>
       </c>
     </row>
@@ -5111,7 +5086,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -5123,52 +5098,52 @@
       <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="80">
-        <v>1</v>
-      </c>
-      <c r="G12" s="102">
+      <c r="F12" s="74">
+        <v>1</v>
+      </c>
+      <c r="G12" s="94">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H12" s="106">
+      <c r="H12" s="98">
         <v>0.47799999999999998</v>
       </c>
-      <c r="I12" s="102">
+      <c r="I12" s="94">
         <v>0.39800000000000002</v>
       </c>
-      <c r="J12" s="106">
+      <c r="J12" s="98">
         <v>0.60799999999999998</v>
       </c>
-      <c r="K12" s="102">
+      <c r="K12" s="94">
         <v>0.52800000000000002</v>
       </c>
-      <c r="L12" s="106">
+      <c r="L12" s="98">
         <v>0.63</v>
       </c>
-      <c r="M12" s="102">
+      <c r="M12" s="94">
         <v>0.63600000000000001</v>
       </c>
-      <c r="N12" s="106">
+      <c r="N12" s="98">
         <v>0.62</v>
       </c>
-      <c r="O12" s="102">
+      <c r="O12" s="94">
         <v>0.72</v>
       </c>
-      <c r="P12" s="106">
+      <c r="P12" s="98">
         <v>0.72599999999999998</v>
       </c>
-      <c r="Q12" s="102">
+      <c r="Q12" s="94">
         <v>0.36599999999999999</v>
       </c>
-      <c r="R12" s="106">
+      <c r="R12" s="98">
         <v>0.502</v>
       </c>
-      <c r="S12" s="102">
+      <c r="S12" s="94">
         <v>0.54400000000000004</v>
       </c>
-      <c r="T12" s="106">
+      <c r="T12" s="98">
         <v>0.55400000000000005</v>
       </c>
-      <c r="U12" s="103">
+      <c r="U12" s="95">
         <v>0.56399999999999995</v>
       </c>
     </row>
@@ -5180,50 +5155,50 @@
         <v>27</v>
       </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="102">
+      <c r="F13" s="74"/>
+      <c r="G13" s="94">
         <v>0.47799999999999998</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="98">
         <v>0.47799999999999998</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I13" s="94">
         <v>0.39800000000000002</v>
       </c>
-      <c r="J13" s="106">
+      <c r="J13" s="98">
         <v>0.60799999999999998</v>
       </c>
-      <c r="K13" s="102">
+      <c r="K13" s="94">
         <v>0.52800000000000002</v>
       </c>
-      <c r="L13" s="106">
+      <c r="L13" s="98">
         <v>0.63</v>
       </c>
-      <c r="M13" s="102">
+      <c r="M13" s="94">
         <v>0.63600000000000001</v>
       </c>
-      <c r="N13" s="106">
+      <c r="N13" s="98">
         <v>0.62</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="94">
         <v>0.72</v>
       </c>
-      <c r="P13" s="106">
+      <c r="P13" s="98">
         <v>0.72599999999999998</v>
       </c>
-      <c r="Q13" s="102">
+      <c r="Q13" s="94">
         <v>0.36599999999999999</v>
       </c>
-      <c r="R13" s="106">
+      <c r="R13" s="98">
         <v>0.502</v>
       </c>
-      <c r="S13" s="102">
+      <c r="S13" s="94">
         <v>0.54400000000000004</v>
       </c>
-      <c r="T13" s="106">
+      <c r="T13" s="98">
         <v>0.55400000000000005</v>
       </c>
-      <c r="U13" s="103">
+      <c r="U13" s="95">
         <v>0.56399999999999995</v>
       </c>
     </row>
@@ -5233,31 +5208,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB03C925-A896-F244-AC73-DD2838F8726D}">
-  <dimension ref="A1:U10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A36FF6-9BF3-6946-9B4F-C30158B49799}">
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" customWidth="1"/>
     <col min="12" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
     <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.1640625" customWidth="1"/>
     <col min="18" max="18" width="7.83203125" customWidth="1"/>
-    <col min="19" max="20" width="8.1640625" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
     <col min="21" max="21" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="158" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="159" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5270,55 +5250,55 @@
       <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5326,7 +5306,7 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -5338,53 +5318,53 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="14">
-        <v>5.4878048780487798E-2</v>
-      </c>
-      <c r="J2" s="13">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13">
-        <v>0.77439024390243905</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0.74390243902439002</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>0</v>
-      </c>
-      <c r="R2" s="13">
-        <v>0</v>
-      </c>
-      <c r="S2" s="14">
-        <v>0</v>
-      </c>
-      <c r="T2" s="13">
-        <v>0.48780487804877998</v>
-      </c>
-      <c r="U2" s="29">
-        <v>0.439024390243902</v>
+      <c r="F2" s="72">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>6.1728395061728296E-3</v>
+      </c>
+      <c r="H2">
+        <v>6.1728395061728296E-3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -5392,7 +5372,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="66" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -5404,61 +5384,61 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="34">
-        <v>0.45121951219512102</v>
-      </c>
-      <c r="J3" s="35">
-        <v>0.70121951219512102</v>
-      </c>
-      <c r="K3" s="34">
-        <v>0.60975609756097504</v>
-      </c>
-      <c r="L3" s="40">
-        <v>0.78658536585365801</v>
-      </c>
-      <c r="M3" s="41">
-        <v>0.76219512195121897</v>
-      </c>
-      <c r="N3" s="40">
-        <v>0.75609756097560898</v>
-      </c>
-      <c r="O3" s="41">
-        <v>0.81707317073170704</v>
-      </c>
-      <c r="P3" s="40">
-        <v>0.81707317073170704</v>
-      </c>
-      <c r="Q3" s="34">
-        <v>0.42073170731707299</v>
-      </c>
-      <c r="R3" s="35">
-        <v>0.77439024390243905</v>
-      </c>
-      <c r="S3" s="41">
-        <v>0.792682926829268</v>
-      </c>
-      <c r="T3" s="40">
-        <v>0.68902439024390205</v>
-      </c>
-      <c r="U3" s="30">
-        <v>0.73780487804878003</v>
+      <c r="F3" s="73">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="H3">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="I3">
+        <v>1.23456790123456E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="K3">
+        <v>0.12962962962962901</v>
+      </c>
+      <c r="L3">
+        <v>0.19135802469135799</v>
+      </c>
+      <c r="M3">
+        <v>0.117283950617283</v>
+      </c>
+      <c r="N3">
+        <v>0.104938271604938</v>
+      </c>
+      <c r="O3">
+        <v>0.179012345679012</v>
+      </c>
+      <c r="P3">
+        <v>0.15432098765432001</v>
+      </c>
+      <c r="Q3">
+        <v>8.0246913580246895E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.209876543209876</v>
+      </c>
+      <c r="S3">
+        <v>0.265432098765432</v>
+      </c>
+      <c r="T3">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="U3">
+        <v>0.141975308641975</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -5470,450 +5450,1070 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="20">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.51219512195121897</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0.51219512195121897</v>
-      </c>
-      <c r="I4" s="36">
-        <v>0.45121951219512102</v>
-      </c>
-      <c r="J4" s="33">
-        <v>0.70121951219512102</v>
-      </c>
-      <c r="K4" s="36">
-        <v>0.60365853658536495</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0.76219512195121897</v>
-      </c>
-      <c r="M4" s="21">
-        <v>0.75609756097560898</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0.72560975609756095</v>
-      </c>
-      <c r="O4" s="38">
-        <v>0.81707317073170704</v>
-      </c>
-      <c r="P4" s="39">
-        <v>0.81707317073170704</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>0.41463414634146301</v>
-      </c>
-      <c r="R4" s="22">
-        <v>0.60975609756097504</v>
-      </c>
-      <c r="S4" s="21">
-        <v>0.59756097560975596</v>
-      </c>
-      <c r="T4" s="22">
-        <v>0.68292682926829196</v>
-      </c>
-      <c r="U4" s="37">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <f t="shared" si="0"/>
+      <c r="F4" s="74">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.104938271604938</v>
+      </c>
+      <c r="H4">
+        <v>0.104938271604938</v>
+      </c>
+      <c r="I4">
+        <v>1.85185185185185E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.209876543209876</v>
+      </c>
+      <c r="K4">
+        <v>0.12962962962962901</v>
+      </c>
+      <c r="L4">
+        <v>0.19135802469135799</v>
+      </c>
+      <c r="M4">
+        <v>0.12345679012345601</v>
+      </c>
+      <c r="N4">
+        <v>0.104938271604938</v>
+      </c>
+      <c r="O4">
+        <v>0.18518518518518501</v>
+      </c>
+      <c r="P4">
+        <v>0.15432098765432001</v>
+      </c>
+      <c r="Q4">
+        <v>8.0246913580246895E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="S4">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="T4">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="U4">
+        <v>0.141975308641975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="66"/>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="H5">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="I5">
+        <v>1.85185185185185E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="K5">
+        <v>0.12962962962962901</v>
+      </c>
+      <c r="L5">
+        <v>0.19135802469135799</v>
+      </c>
+      <c r="M5">
+        <v>0.12345679012345601</v>
+      </c>
+      <c r="N5">
+        <v>0.104938271604938</v>
+      </c>
+      <c r="O5">
+        <v>0.18518518518518501</v>
+      </c>
+      <c r="P5">
+        <v>0.15432098765432001</v>
+      </c>
+      <c r="Q5">
+        <v>8.0246913580246895E-2</v>
+      </c>
+      <c r="R5">
+        <v>0.209876543209876</v>
+      </c>
+      <c r="S5">
+        <v>0.265432098765432</v>
+      </c>
+      <c r="T5">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="U5">
+        <v>0.141975308641975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>2.4390243902439001E-2</v>
-      </c>
-      <c r="H5" s="13">
-        <v>2.4390243902439001E-2</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>2.4390243902439001E-2</v>
-      </c>
-      <c r="M5" s="14">
-        <v>6.0975609756097502E-3</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0.72560975609756095</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="14">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
-        <v>0</v>
-      </c>
-      <c r="U5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="72">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.46341463414634099</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.46341463414634099</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.44512195121951198</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.65853658536585302</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0.55487804878048697</v>
-      </c>
-      <c r="L6" s="35">
-        <v>0.81707317073170704</v>
-      </c>
-      <c r="M6" s="34">
-        <v>0.76829268292682895</v>
-      </c>
-      <c r="N6" s="35">
-        <v>0.76829268292682895</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0.78658536585365801</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0.76829268292682895</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0.31707317073170699</v>
-      </c>
-      <c r="R6" s="3">
-        <v>9.1463414634146298E-2</v>
-      </c>
-      <c r="S6" s="34">
-        <v>0.80487804878048697</v>
-      </c>
-      <c r="T6" s="35">
-        <v>0.69512195121951204</v>
-      </c>
-      <c r="U6" s="30">
-        <v>0.62195121951219501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="H7">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="I7">
+        <v>6.1728395061728301E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.4691358024691301E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.13580246913580199</v>
+      </c>
+      <c r="L7">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="M7">
+        <v>0.234567901234567</v>
+      </c>
+      <c r="N7">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="O7">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="P7">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="Q7">
+        <v>9.2592592592592504E-2</v>
+      </c>
+      <c r="R7">
+        <v>9.2592592592592504E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="T7">
+        <v>0.18518518518518501</v>
+      </c>
+      <c r="U7">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="32">
-        <v>0.542682926829268</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0.542682926829268</v>
-      </c>
-      <c r="I7" s="38">
-        <v>0.44512195121951198</v>
-      </c>
-      <c r="J7" s="39">
-        <v>0.68292682926829196</v>
-      </c>
-      <c r="K7" s="38">
-        <v>0.57926829268292601</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0.792682926829268</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0.74390243902439002</v>
-      </c>
-      <c r="O7" s="36">
-        <v>0.835365853658536</v>
-      </c>
-      <c r="P7" s="33">
-        <v>0.82317073170731703</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>0.35975609756097499</v>
-      </c>
-      <c r="R7" s="39">
-        <v>0.68292682926829196</v>
-      </c>
-      <c r="S7" s="21">
-        <v>0.76829268292682895</v>
-      </c>
-      <c r="T7" s="22">
-        <v>0.68902439024390205</v>
-      </c>
-      <c r="U7" s="42">
-        <v>0.74390243902439002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <f t="shared" si="0"/>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="74">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="H8">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="I8">
+        <v>9.8765432098765399E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="K8">
+        <v>0.179012345679012</v>
+      </c>
+      <c r="L8">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="M8">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="N8">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="O8">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="P8">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="Q8">
+        <v>0.104938271604938</v>
+      </c>
+      <c r="R8">
+        <v>0.179012345679012</v>
+      </c>
+      <c r="S8">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="T8">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="U8">
+        <v>0.19135802469135799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="66"/>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="H9">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="I9">
+        <v>9.8765432098765399E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="K9">
+        <v>0.179012345679012</v>
+      </c>
+      <c r="L9">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="M9">
+        <v>0.234567901234567</v>
+      </c>
+      <c r="N9">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="O9">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="P9">
+        <v>0.172839506172839</v>
+      </c>
+      <c r="Q9">
+        <v>0.104938271604938</v>
+      </c>
+      <c r="R9">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="S9">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="T9">
+        <v>0.18518518518518501</v>
+      </c>
+      <c r="U9">
+        <v>0.22839506172839499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>4.8780487804878002E-2</v>
-      </c>
-      <c r="H8" s="13">
-        <v>4.8780487804878002E-2</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0.60975609756097504</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="29">
-        <v>6.0975609756097502E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="72">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.25609756097560898</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.25609756097560898</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.34146341463414598</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.585365853658536</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0.51219512195121897</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.72560975609756095</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0.71341463414634099</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.68292682926829196</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0.75609756097560898</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.31707317073170699</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0.64024390243902396</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0.73170731707317005</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0.32317073170731703</v>
-      </c>
-      <c r="U9" s="30">
-        <v>0.53048780487804803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.148148148148148</v>
+      </c>
+      <c r="H11">
+        <v>0.148148148148148</v>
+      </c>
+      <c r="I11">
+        <v>8.6419753086419707E-2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.16049382716049301</v>
+      </c>
+      <c r="L11">
+        <v>0.22839506172839499</v>
+      </c>
+      <c r="M11">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="N11">
+        <v>9.8765432098765399E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.203703703703703</v>
+      </c>
+      <c r="P11">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="Q11">
+        <v>8.0246913580246895E-2</v>
+      </c>
+      <c r="R11">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="S11">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="T11">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="U11">
+        <v>0.179012345679012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1</v>
-      </c>
-      <c r="G10" s="32">
-        <v>0.542682926829268</v>
-      </c>
-      <c r="H10" s="33">
-        <v>0.54878048780487798</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0.41463414634146301</v>
-      </c>
-      <c r="J10" s="22">
-        <v>0.585365853658536</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0.53658536585365801</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0.71341463414634099</v>
-      </c>
-      <c r="M10" s="21">
-        <v>0.71341463414634099</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0.67682926829268297</v>
-      </c>
-      <c r="O10" s="21">
-        <v>0.77439024390243905</v>
-      </c>
-      <c r="P10" s="22">
-        <v>0.76829268292682895</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>0.37195121951219501</v>
-      </c>
-      <c r="R10" s="22">
-        <v>0.707317073170731</v>
-      </c>
-      <c r="S10" s="21">
-        <v>0.73780487804878003</v>
-      </c>
-      <c r="T10" s="22">
-        <v>0.51829268292682895</v>
-      </c>
-      <c r="U10" s="31">
-        <v>0.72560975609756095</v>
-      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="74">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.148148148148148</v>
+      </c>
+      <c r="H12">
+        <v>0.148148148148148</v>
+      </c>
+      <c r="I12">
+        <v>0.12962962962962901</v>
+      </c>
+      <c r="J12">
+        <v>0.24691358024691301</v>
+      </c>
+      <c r="K12">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="L12">
+        <v>0.22839506172839499</v>
+      </c>
+      <c r="M12">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="N12">
+        <v>0.209876543209876</v>
+      </c>
+      <c r="O12">
+        <v>0.22839506172839499</v>
+      </c>
+      <c r="P12">
+        <v>0.22839506172839499</v>
+      </c>
+      <c r="Q12">
+        <v>8.0246913580246895E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="S12">
+        <v>0.234567901234567</v>
+      </c>
+      <c r="T12">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="U12">
+        <v>0.22839506172839499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13">
+        <v>0.15432098765432001</v>
+      </c>
+      <c r="H13">
+        <v>0.15432098765432001</v>
+      </c>
+      <c r="I13">
+        <v>0.12962962962962901</v>
+      </c>
+      <c r="J13">
+        <v>0.24691358024691301</v>
+      </c>
+      <c r="K13">
+        <v>0.19753086419752999</v>
+      </c>
+      <c r="L13">
+        <v>0.22839506172839499</v>
+      </c>
+      <c r="M13">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="N13">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="O13">
+        <v>0.22839506172839499</v>
+      </c>
+      <c r="P13">
+        <v>0.22839506172839499</v>
+      </c>
+      <c r="Q13">
+        <v>8.0246913580246895E-2</v>
+      </c>
+      <c r="R13">
+        <v>0.21604938271604901</v>
+      </c>
+      <c r="S13">
+        <v>0.234567901234567</v>
+      </c>
+      <c r="T13">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="U13">
+        <v>0.24691358024691301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD38C14A-92AB-C14B-9100-558C28A7F192}">
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="12" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1640625" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="159" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="72">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="65"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="73">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="67"/>
+    </row>
+    <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="74">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="54"/>
+    </row>
+    <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="66"/>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="67"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <f>A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="72">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="65"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="67"/>
+    </row>
+    <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="74">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="54"/>
+    </row>
+    <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="66"/>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="67"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f>A8+1</f>
+        <v>7</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="72">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="65"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="67"/>
+    </row>
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="74">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="54"/>
+    </row>
+    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_documents/2_docs/indiv_model_results_20250322.xlsx
+++ b/0_documents/2_docs/indiv_model_results_20250322.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Documents/04_git/code-generation/0_documents/2_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311F01F-A87B-E646-A1F4-61F049113AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89491A47-30E8-D449-9F1E-79D94104F9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17220" activeTab="5" xr2:uid="{C9D0F527-0BC8-1244-93BD-714AFEC4ED61}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17220" activeTab="3" xr2:uid="{C9D0F527-0BC8-1244-93BD-714AFEC4ED61}"/>
   </bookViews>
   <sheets>
     <sheet name="HumanEval" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>full_light</t>
+  </si>
+  <si>
+    <t>lbpp</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,6 +606,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3503,13 +3509,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB92485-4A32-3C43-82C3-858D3065D142}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" customWidth="1"/>
@@ -3594,12 +3600,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>12</v>
+      <c r="B2" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>4</v>
@@ -3659,13 +3665,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>12</v>
+      <c r="B3" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -3727,11 +3733,11 @@
     </row>
     <row r="4" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <f t="shared" ref="A4:A12" si="0">A3+1</f>
+        <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>12</v>
+      <c r="B4" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>4</v>
@@ -3792,8 +3798,16 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
@@ -3844,13 +3858,13 @@
         <v>0.25308641975308599</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <f>A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>12</v>
+    <row r="6" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>1</v>
@@ -3910,13 +3924,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+    <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -3979,10 +3993,10 @@
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>1</v>
@@ -4043,8 +4057,16 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
@@ -4095,13 +4117,13 @@
         <v>0.29012345679012302</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <f>A8+1</f>
-        <v>7</v>
-      </c>
-      <c r="B10" s="64" t="s">
-        <v>12</v>
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
@@ -4161,13 +4183,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4230,10 +4252,10 @@
     <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="102" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>8</v>
@@ -4294,9 +4316,16 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="75" t="s">
         <v>27</v>
       </c>
@@ -5211,7 +5240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A36FF6-9BF3-6946-9B4F-C30158B49799}">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
